--- a/tables/results_classification_recession_period_space_auc.xlsx
+++ b/tables/results_classification_recession_period_space_auc.xlsx
@@ -1046,7 +1046,7 @@
         <v>26</v>
       </c>
       <c r="F12">
-        <v>0.7077869579944092</v>
+        <v>0.7075878782418987</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -1055,10 +1055,10 @@
         <v>30</v>
       </c>
       <c r="I12">
-        <v>0.5883289124668435</v>
+        <v>0.6196286472148541</v>
       </c>
       <c r="J12">
-        <v>0.7169031393140431</v>
+        <v>0.6852865601608759</v>
       </c>
       <c r="K12">
         <v>44208</v>
@@ -1096,7 +1096,7 @@
         <v>25</v>
       </c>
       <c r="F13">
-        <v>0.7234163727219283</v>
+        <v>0.7245002939447384</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
@@ -1105,7 +1105,7 @@
         <v>30</v>
       </c>
       <c r="I13">
-        <v>0.6111111111111112</v>
+        <v>0.6018518518518519</v>
       </c>
       <c r="J13">
         <v>0.746031746031746</v>
@@ -1146,7 +1146,7 @@
         <v>26</v>
       </c>
       <c r="F14">
-        <v>0.7293795656368757</v>
+        <v>0.7296355366530805</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
@@ -1158,7 +1158,7 @@
         <v>0.6262626262626263</v>
       </c>
       <c r="J14">
-        <v>0.7037037037037037</v>
+        <v>0.7095516569200779</v>
       </c>
       <c r="K14">
         <v>14676</v>
@@ -1296,7 +1296,7 @@
         <v>25</v>
       </c>
       <c r="F17">
-        <v>0.7584834937732927</v>
+        <v>0.7584187774939901</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
@@ -1305,10 +1305,10 @@
         <v>30</v>
       </c>
       <c r="I17">
-        <v>0.6867469879518072</v>
+        <v>0.7009857612267251</v>
       </c>
       <c r="J17">
-        <v>0.697170837867247</v>
+        <v>0.682480957562568</v>
       </c>
       <c r="K17">
         <v>44028</v>
@@ -1346,7 +1346,7 @@
         <v>27</v>
       </c>
       <c r="F18">
-        <v>0.7795208684858741</v>
+        <v>0.7791871268469678</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -1355,10 +1355,10 @@
         <v>30</v>
       </c>
       <c r="I18">
-        <v>0.7381258023106547</v>
+        <v>0.7394094993581515</v>
       </c>
       <c r="J18">
-        <v>0.7038921394047316</v>
+        <v>0.7013482574408547</v>
       </c>
       <c r="K18">
         <v>16696</v>
@@ -1396,7 +1396,7 @@
         <v>27</v>
       </c>
       <c r="F19">
-        <v>0.7924302788844622</v>
+        <v>0.7913799348062297</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -1405,10 +1405,10 @@
         <v>30</v>
       </c>
       <c r="I19">
-        <v>0.6181818181818182</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="J19">
-        <v>0.8366533864541833</v>
+        <v>0.8227091633466136</v>
       </c>
       <c r="K19">
         <v>14676</v>
